--- a/proyecto-antiguo/exportarExcel.xlsx
+++ b/proyecto-antiguo/exportarExcel.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
-  <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47,11 +50,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf fontId="0" borderId="0" numFmtId="0" fillId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -341,142 +345,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+  </s:sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13">
       <c r="B1" t="n">
-        <v>-7.445432420330241</v>
+        <v>-7.813084756234693</v>
       </c>
       <c r="G1" t="n">
-        <v>-7.612206031589073</v>
+        <v>-7.257733031626815</v>
       </c>
       <c r="L1" t="n">
-        <v>-6.91593239743827</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>-6.57330834276316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>-7.425098382744325</v>
+        <v>-7.898419432207479</v>
       </c>
       <c r="C2" t="n">
-        <v>2.898818241965897</v>
+        <v>2.743889011517601</v>
       </c>
       <c r="F2" t="n">
-        <v>2.273014119945838</v>
+        <v>2.191363435688477</v>
       </c>
       <c r="H2" t="n">
-        <v>3.087885206748634</v>
+        <v>3.429943438312876</v>
       </c>
       <c r="K2" t="n">
-        <v>3.048598559397772</v>
+        <v>2.716427843030589</v>
       </c>
       <c r="M2" t="n">
-        <v>-5.661051480529459</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>-5.447708220193896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="B3" t="n">
-        <v>3.323450736859023</v>
+        <v>2.685732366497799</v>
       </c>
       <c r="G3" t="n">
-        <v>4.047051582729108</v>
+        <v>3.505269377606987</v>
       </c>
       <c r="L3" t="n">
-        <v>4.938221277749968</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>4.367002574468704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="B6" t="n">
-        <v>2.543613455702146</v>
+        <v>2.167363275950684</v>
       </c>
       <c r="G6" t="n">
-        <v>2.436578003303563</v>
+        <v>2.796346569354182</v>
       </c>
       <c r="L6" t="n">
-        <v>3.775901458139315</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>3.429752691028211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="n">
-        <v>-6.764070069940995</v>
+        <v>-7.342788432880075</v>
       </c>
       <c r="C7" t="n">
-        <v>4.041629604194219</v>
+        <v>3.485896213744789</v>
       </c>
       <c r="F7" t="n">
-        <v>3.323260040045539</v>
+        <v>2.754733575505627</v>
       </c>
       <c r="H7" t="n">
-        <v>4.934879490118232</v>
+        <v>4.382724219517716</v>
       </c>
       <c r="K7" t="n">
-        <v>3.961364925820241</v>
+        <v>3.499574375878577</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13">
       <c r="B8" t="n">
-        <v>4.229306932341778</v>
+        <v>2.696232806053662</v>
       </c>
       <c r="G8" t="n">
-        <v>5.073704756950436</v>
+        <v>4.231253558475492</v>
       </c>
       <c r="L8" t="n">
-        <v>6.228768265115533</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>5.483529345370314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="B11" t="n">
-        <v>2.16003858749658</v>
+        <v>2.745495974523907</v>
       </c>
       <c r="G11" t="n">
-        <v>4.056954955914408</v>
+        <v>3.375507108951307</v>
       </c>
       <c r="L11" t="n">
-        <v>3.865863617038751</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>4.376347729495585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="n">
-        <v>-5.688641657666882</v>
+        <v>-8.389670386605752</v>
       </c>
       <c r="C12" t="n">
-        <v>5.422761129395379</v>
+        <v>3.540966898106082</v>
       </c>
       <c r="F12" t="n">
-        <v>4.262808676876916</v>
+        <v>2.805465238546597</v>
       </c>
       <c r="H12" t="n">
-        <v>6.784766001885481</v>
+        <v>5.319478948050041</v>
       </c>
       <c r="K12" t="n">
-        <v>5.353074607416429</v>
+        <v>3.974130981355254</v>
       </c>
       <c r="M12" t="n">
-        <v>8.691325150135798</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>6.860855204936135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="B13" t="n">
-        <v>-5.895182632555903</v>
+        <v>-7.849943112270628</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.650534215968299</v>
+        <v>-5.887340070745454</v>
       </c>
       <c r="L13" t="n">
-        <v>-3.099122623325963</v>
+        <v>-4.512636589769326</v>
       </c>
     </row>
   </sheetData>
